--- a/results.xlsx
+++ b/results.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i530455/Documents/MLBenchmarking/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD737811-B1DB-F846-8508-0A9F9DFD50D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17520" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Watermark Tests</t>
   </si>
   <si>
     <t>Opacity</t>
-  </si>
-  <si>
-    <t>WER</t>
   </si>
   <si>
     <t>GoogleVision</t>
@@ -30,22 +36,41 @@
   </si>
   <si>
     <t>Leonardo Fakes</t>
+  </si>
+  <si>
+    <t>CER</t>
+  </si>
+  <si>
+    <t>CER %</t>
+  </si>
+  <si>
+    <t>Tesseract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,39 +78,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -275,128 +307,258 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48.792270531400902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45.893719806763201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46.859903381642503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42.512077294685902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45.893719806763201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1">
+        <v>36.231884057971001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1">
+        <v>35.265700483091699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1">
+        <v>37.198067632850197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20.289855072463698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>48.7922705314009</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45.8937198067632</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>46.8599033816425</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42.5120772946859</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45.8937198067632</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>36.231884057971</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>35.2657004830917</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>37.1980676328502</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>20.2898550724637</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.2239999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2.5619999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>8.1189999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>9.0470000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>4.6449999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>79.195999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>8.1189999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5.1109999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i530455/Documents/MLBenchmarking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD737811-B1DB-F846-8508-0A9F9DFD50D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C0E28-967A-2B4F-8E19-0E47ABFBBF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17520" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="500" windowWidth="14540" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Watermark Tests</t>
   </si>
@@ -45,6 +55,12 @@
   </si>
   <si>
     <t>Tesseract</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
@@ -60,11 +76,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,7 +116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,10 +335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:C33"/>
+  <dimension ref="A3:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -446,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="4">
-        <v>3.2239999999999998E-2</v>
+        <v>3.2240000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -514,48 +532,58 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>5.1109999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C19:C31)/13</f>
+        <v>9.8550000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>8.1189999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>5.1109999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>13.27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
-        <v>14</v>
+      <c r="C37">
+        <f>_xlfn.STDEV.P(C19:C31)</f>
+        <v>20.380810408888966</v>
       </c>
     </row>
   </sheetData>
